--- a/apps/reports/excell/report_quarter_template.xlsx
+++ b/apps/reports/excell/report_quarter_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96E679-749A-4A46-8055-4DBAA5739533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51494896-7F32-4410-A180-146A043EFD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,9 +201,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]General"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -557,7 +556,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>

--- a/apps/reports/excell/report_quarter_template.xlsx
+++ b/apps/reports/excell/report_quarter_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51494896-7F32-4410-A180-146A043EFD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C788DB68-2F1B-4E4D-829F-5006A2638524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -473,20 +473,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -508,15 +504,12 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,8 +549,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -877,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,223 +926,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="34" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
     </row>
     <row r="5" spans="1:26" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="18" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="T5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="U5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="36"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:26" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="42">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="40"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="39"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/apps/reports/excell/report_quarter_template.xlsx
+++ b/apps/reports/excell/report_quarter_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C788DB68-2F1B-4E4D-829F-5006A2638524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D183FB0-0713-4D60-92CD-ADFDEA12339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,11 +503,11 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,34 +548,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -898,7 +900,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A7" sqref="A7:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,164 +928,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="27" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="27" t="s">
+      <c r="Y3" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
     </row>
     <row r="5" spans="1:26" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="14" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="29"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1103,37 +1105,37 @@
       <c r="U6" s="3"/>
       <c r="V6" s="7"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="10"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="39"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="42"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">

--- a/apps/reports/excell/report_quarter_template.xlsx
+++ b/apps/reports/excell/report_quarter_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D183FB0-0713-4D60-92CD-ADFDEA12339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A1E439-1B82-4D26-A5C6-F2EBC230ACEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,6 +509,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,39 +579,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,13 +900,13 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Y7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
@@ -928,101 +928,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="26" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="26" t="s">
+      <c r="Y3" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1077,9 +1077,9 @@
       <c r="V5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
@@ -1108,34 +1108,34 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="42"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="29"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">

--- a/apps/reports/excell/report_quarter_template.xlsx
+++ b/apps/reports/excell/report_quarter_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A1E439-1B82-4D26-A5C6-F2EBC230ACEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F784B88-CECB-44A5-B476-B1F4F2EA3770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,10 +897,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +959,7 @@
       <c r="Y1" s="30"/>
       <c r="Z1" s="30"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -991,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="C4" s="34"/>
@@ -1108,7 +1111,7 @@
       <c r="X6" s="8"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1</v>
       </c>
@@ -1161,7 +1164,7 @@
     <mergeCell ref="Q4:V4"/>
     <mergeCell ref="Y3:Y5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="53" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>